--- a/dbHelpers/geographical_info.xlsx
+++ b/dbHelpers/geographical_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\testspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>22.92_N</t>
+  </si>
+  <si>
+    <t>78.78_E</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,11 +413,11 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>22.92</v>
-      </c>
-      <c r="D2">
-        <v>78.78</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>

--- a/dbHelpers/geographical_info.xlsx
+++ b/dbHelpers/geographical_info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C7D35-7D7A-4116-8665-346D7232F30A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -47,19 +48,352 @@
     <t>Gadarwara is a city and a municipality in Narsinghpur district in the state of Madhya Pradesh at latitude-longitude of 22.92 degrees North and 78.78 degrees East</t>
   </si>
   <si>
-    <t>MADHYA PRADESH</t>
-  </si>
-  <si>
     <t>22.92_N</t>
   </si>
   <si>
     <t>78.78_E</t>
+  </si>
+  <si>
+    <t>Solapur is a city located in the south-western region of the Indian state of Maharashtra, close to its border with Karnataka</t>
+  </si>
+  <si>
+    <t>Solapur</t>
+  </si>
+  <si>
+    <t>17.68_N</t>
+  </si>
+  <si>
+    <t>75.92_E</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>CGPL</t>
+  </si>
+  <si>
+    <t>22.81_N</t>
+  </si>
+  <si>
+    <t>69.52_E</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Mouda, is a town and a tehsil in the Ramtek subdivision of the Nagpur district in the Nagpur Revenue Division in the Berar region in the state of Maharashtra</t>
+  </si>
+  <si>
+    <t>CGPL is a coal-fired power plant in Tunda village at Mundra, Kutch district, Gujarat.</t>
+  </si>
+  <si>
+    <t>Mouda</t>
+  </si>
+  <si>
+    <t>21.14_N</t>
+  </si>
+  <si>
+    <t>79.39_E</t>
+  </si>
+  <si>
+    <t>Sasan</t>
+  </si>
+  <si>
+    <t>Sasan Power Plant is located in Sasan village of Singrauli, Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>23.97_N</t>
+  </si>
+  <si>
+    <t>82.62_E</t>
+  </si>
+  <si>
+    <t>NSPCL Bhilai Power Plant is located at Bhilai in Durg district, Chhattisgarh.</t>
+  </si>
+  <si>
+    <t>NSPCL</t>
+  </si>
+  <si>
+    <t>21.18_N</t>
+  </si>
+  <si>
+    <t>81.34_E</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Gandhar</t>
+  </si>
+  <si>
+    <t>Kawas</t>
+  </si>
+  <si>
+    <t>Sipat</t>
+  </si>
+  <si>
+    <t>VSTPS</t>
+  </si>
+  <si>
+    <t>NTPC Gandhar is a gas-based power plant located at Urja Nagar, in Bharuch district in Gujarat</t>
+  </si>
+  <si>
+    <t>20.45_N</t>
+  </si>
+  <si>
+    <t>71.85_E</t>
+  </si>
+  <si>
+    <t>NTPC Kawas is located at Aditya Nagar, in Surat district of Gujarat.</t>
+  </si>
+  <si>
+    <t>21.17_N</t>
+  </si>
+  <si>
+    <t>72.68_E</t>
+  </si>
+  <si>
+    <t>Sipat Power Station is located at Sipat in Bilaspur district Chhattisgarh</t>
+  </si>
+  <si>
+    <t>22.13_N</t>
+  </si>
+  <si>
+    <t>82.29_E</t>
+  </si>
+  <si>
+    <t>Vindhyachal Thermal Power Station is located in Singrauli district in the Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>24.09_N</t>
+  </si>
+  <si>
+    <t>82.67_E</t>
+  </si>
+  <si>
+    <t>RGPPL</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>KSTPS</t>
+  </si>
+  <si>
+    <t>Korba Thermal Power Plant is located at Jamnipali in Korba district of Chhattisgarh</t>
+  </si>
+  <si>
+    <t>22.38_N</t>
+  </si>
+  <si>
+    <t>82.68_E</t>
+  </si>
+  <si>
+    <t>RGPPL Power plant is located in Ratnagiri, Maharashtra</t>
+  </si>
+  <si>
+    <t>19.11_N</t>
+  </si>
+  <si>
+    <t>72.86_E</t>
+  </si>
+  <si>
+    <t>SSP power plant is located near Navagam, Gujarat</t>
+  </si>
+  <si>
+    <t>21.83_N</t>
+  </si>
+  <si>
+    <t>73.74_E</t>
+  </si>
+  <si>
+    <t>DB_POWER</t>
+  </si>
+  <si>
+    <t>JP_Nigrie</t>
+  </si>
+  <si>
+    <t>Essar_Mahan</t>
+  </si>
+  <si>
+    <t>Dhariwal</t>
+  </si>
+  <si>
+    <t>KWPCL</t>
+  </si>
+  <si>
+    <t>LANCO</t>
+  </si>
+  <si>
+    <t>SKS</t>
+  </si>
+  <si>
+    <t>KSK</t>
+  </si>
+  <si>
+    <t>MB_Power</t>
+  </si>
+  <si>
+    <t>RKM</t>
+  </si>
+  <si>
+    <t>TRN</t>
+  </si>
+  <si>
+    <t>KAPS</t>
+  </si>
+  <si>
+    <t>Taps</t>
+  </si>
+  <si>
+    <t>Balco</t>
+  </si>
+  <si>
+    <t>Jhabua</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>DB power is located near Nandeli Road, Badadarha, Chhattisgarh</t>
+  </si>
+  <si>
+    <t>21.90_N</t>
+  </si>
+  <si>
+    <t>83.18_E</t>
+  </si>
+  <si>
+    <t>JP Nigrie power located in Nigrie, Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>24.15_N</t>
+  </si>
+  <si>
+    <t>81.91_E</t>
+  </si>
+  <si>
+    <t>Essar Mahan Power Plant is located near Singrauli town in Singrauli district of Madhya Pradesh.</t>
+  </si>
+  <si>
+    <t>24.00_N</t>
+  </si>
+  <si>
+    <t>82.41_E</t>
+  </si>
+  <si>
+    <t>Dhariwal Power Station is located near Tadali town in Chandrapur district Maharashtra</t>
+  </si>
+  <si>
+    <t>20.01_N</t>
+  </si>
+  <si>
+    <t>79.19_E</t>
+  </si>
+  <si>
+    <t>KWPCL is based at Raigarh district in the State of Chhattisgarh</t>
+  </si>
+  <si>
+    <t>21.74_N</t>
+  </si>
+  <si>
+    <t>83.27_E</t>
+  </si>
+  <si>
+    <t>Lanco Power is located near Pathadi Village on Korba-Champa State Highway in Chhattisgarh</t>
+  </si>
+  <si>
+    <t>22.24_N</t>
+  </si>
+  <si>
+    <t>82.73_E</t>
+  </si>
+  <si>
+    <t>SKS Power Power Project is located at Villages Binjkote &amp; Daramurra of Raigarh District, Chhattisgarh</t>
+  </si>
+  <si>
+    <t>KSK power project is located approximately 125km away from the Morga-2 coal block in the Janjgir-Champa district of Chhahattisgarh</t>
+  </si>
+  <si>
+    <t>20.93_N</t>
+  </si>
+  <si>
+    <t>73.75_E</t>
+  </si>
+  <si>
+    <t>MB Power is located in Anuppur District, Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>23.054_N</t>
+  </si>
+  <si>
+    <t>81.79_E</t>
+  </si>
+  <si>
+    <t>RKM power plant is located in Ucchpinda Village, Janjgir Champa District, Chhattisgarh.</t>
+  </si>
+  <si>
+    <t>21.88_N</t>
+  </si>
+  <si>
+    <t>83.12_E</t>
+  </si>
+  <si>
+    <t>TRN power plant is  located at Nawapara Village in the Raigarh district, Chhattisgarh</t>
+  </si>
+  <si>
+    <t>83.26_E</t>
+  </si>
+  <si>
+    <t>Kakrapar Atomic Power Station lies in the proximity of the city of Vyara in Gujarat</t>
+  </si>
+  <si>
+    <t>21.23_N</t>
+  </si>
+  <si>
+    <t>73.35_E</t>
+  </si>
+  <si>
+    <t>Tarapur Atomic Power Station is located in Tarapur, Palghar Taluka , Akkarpatti in Maharashtra</t>
+  </si>
+  <si>
+    <t>19.83_N</t>
+  </si>
+  <si>
+    <t>72.66_E</t>
+  </si>
+  <si>
+    <t>Balco thermal power plant is located in  Korba, Chhattisgarh state</t>
+  </si>
+  <si>
+    <t>22.39_N</t>
+  </si>
+  <si>
+    <t>Jhabua Thermal Power Project is located in village Barela - Gorakhpur, in Ghansore tehsil in Seoni district of Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>22.73_N</t>
+  </si>
+  <si>
+    <t>79.91_E</t>
+  </si>
+  <si>
+    <t>Lara Power Station is located at near village Lara, Taluk Pussore, Raigarh district of Chhattisgarh</t>
+  </si>
+  <si>
+    <t>20.27_N</t>
+  </si>
+  <si>
+    <t>73.57_E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,16 +748,493 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dbHelpers/geographical_info.xlsx
+++ b/dbHelpers/geographical_info.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C7D35-7D7A-4116-8665-346D7232F30A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E7648-5AA0-4586-B657-3233193BFDA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,9 +42,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>GADARWARA</t>
-  </si>
-  <si>
     <t>Gadarwara is a city and a municipality in Narsinghpur district in the state of Madhya Pradesh at latitude-longitude of 22.92 degrees North and 78.78 degrees East</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>73.74_E</t>
   </si>
   <si>
-    <t>DB_POWER</t>
-  </si>
-  <si>
     <t>JP_Nigrie</t>
   </si>
   <si>
@@ -388,6 +382,12 @@
   </si>
   <si>
     <t>73.57_E</t>
+  </si>
+  <si>
+    <t>DB_Power</t>
+  </si>
+  <si>
+    <t>Gadarwara</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,495 +742,495 @@
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
-      </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
         <v>102</v>
       </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" t="s">
-        <v>109</v>
-      </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
         <v>110</v>
       </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
-      </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
